--- a/storages/database_V1/unsubmited_data.xlsx
+++ b/storages/database_V1/unsubmited_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY111"/>
+  <dimension ref="A1:AY113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18060,6 +18060,340 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>hd543708</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ha doan</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>04 nguyen van troi</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>646232</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>8</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AH112" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AI112" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AK112" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AL112" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AM112" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AN112" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr"/>
+      <c r="AP112" t="inlineStr"/>
+      <c r="AQ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AW112" t="inlineStr"/>
+      <c r="AX112" t="inlineStr"/>
+      <c r="AY112" t="inlineStr">
+        <is>
+          <t>khong ro</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>HND963221</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ha Nhat Doan</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>646232</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>1</v>
+      </c>
+      <c r="W113" t="n">
+        <v>3</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>le</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="AB113" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AH113" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AI113" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AK113" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AL113" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AM113" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AN113" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AO113" t="inlineStr"/>
+      <c r="AP113" t="inlineStr"/>
+      <c r="AQ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AW113" t="inlineStr"/>
+      <c r="AX113" t="inlineStr"/>
+      <c r="AY113" t="inlineStr">
+        <is>
+          <t>khong ro</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storages/database_V1/unsubmited_data.xlsx
+++ b/storages/database_V1/unsubmited_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY113"/>
+  <dimension ref="A1:AY115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18394,6 +18394,352 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>HND117655</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Ha Nhat Doan</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>646232</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>9</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>1</v>
+      </c>
+      <c r="W114" t="n">
+        <v>3</v>
+      </c>
+      <c r="X114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>ansu</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="AB114" t="n">
+        <v>188000</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AH114" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AI114" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AK114" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AL114" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AM114" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AN114" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AO114" t="inlineStr"/>
+      <c r="AP114" t="inlineStr"/>
+      <c r="AQ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW114" t="inlineStr"/>
+      <c r="AX114" t="inlineStr"/>
+      <c r="AY114" t="inlineStr">
+        <is>
+          <t>khong ro</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>d706185</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>duyen</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>646232</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>2</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" t="n">
+        <v>1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1</v>
+      </c>
+      <c r="W115" t="n">
+        <v>2</v>
+      </c>
+      <c r="X115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>ansu</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="AB115" t="n">
+        <v>900000</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AH115" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AI115" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AL115" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AM115" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AN115" t="inlineStr">
+        <is>
+          <t>khong</t>
+        </is>
+      </c>
+      <c r="AO115" t="inlineStr"/>
+      <c r="AP115" t="inlineStr"/>
+      <c r="AQ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>33</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>63.78</v>
+      </c>
+      <c r="AW115" t="inlineStr"/>
+      <c r="AX115" t="inlineStr"/>
+      <c r="AY115" t="inlineStr">
+        <is>
+          <t>khong ro</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
